--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20250930_171243.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20250930_171243.xlsx
@@ -7703,7 +7703,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -7889,7 +7889,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
